--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Plxdc1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.834515518914818</v>
+        <v>2.294649666666667</v>
       </c>
       <c r="H2">
-        <v>0.834515518914818</v>
+        <v>6.883949</v>
       </c>
       <c r="I2">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="J2">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.582584958198364</v>
+        <v>0.7865853333333334</v>
       </c>
       <c r="N2">
-        <v>0.582584958198364</v>
+        <v>2.359756</v>
       </c>
       <c r="O2">
-        <v>0.03874799092988913</v>
+        <v>0.04863566260895438</v>
       </c>
       <c r="P2">
-        <v>0.03874799092988913</v>
+        <v>0.04863566260895438</v>
       </c>
       <c r="Q2">
-        <v>0.4861761887028753</v>
+        <v>1.804937772938223</v>
       </c>
       <c r="R2">
-        <v>0.4861761887028753</v>
+        <v>16.244439956444</v>
       </c>
       <c r="S2">
-        <v>0.0001028487863950787</v>
+        <v>0.0003513603289197949</v>
       </c>
       <c r="T2">
-        <v>0.0001028487863950787</v>
+        <v>0.0003513603289197949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.834515518914818</v>
+        <v>2.294649666666667</v>
       </c>
       <c r="H3">
-        <v>0.834515518914818</v>
+        <v>6.883949</v>
       </c>
       <c r="I3">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="J3">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.297127667971696</v>
+        <v>0.30859</v>
       </c>
       <c r="N3">
-        <v>0.297127667971696</v>
+        <v>0.92577</v>
       </c>
       <c r="O3">
-        <v>0.01976209653471056</v>
+        <v>0.01908054789287184</v>
       </c>
       <c r="P3">
-        <v>0.01976209653471056</v>
+        <v>0.01908054789287185</v>
       </c>
       <c r="Q3">
-        <v>0.2479576500213496</v>
+        <v>0.7081059406366667</v>
       </c>
       <c r="R3">
-        <v>0.2479576500213496</v>
+        <v>6.37295346573</v>
       </c>
       <c r="S3">
-        <v>5.245452980762289E-05</v>
+        <v>0.0001378442736045924</v>
       </c>
       <c r="T3">
-        <v>5.245452980762289E-05</v>
+        <v>0.0001378442736045924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.834515518914818</v>
+        <v>2.294649666666667</v>
       </c>
       <c r="H4">
-        <v>0.834515518914818</v>
+        <v>6.883949</v>
       </c>
       <c r="I4">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="J4">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.79223886728933</v>
+        <v>4.278008666666667</v>
       </c>
       <c r="N4">
-        <v>3.79223886728933</v>
+        <v>12.834026</v>
       </c>
       <c r="O4">
-        <v>0.2522235343804876</v>
+        <v>0.264515211933161</v>
       </c>
       <c r="P4">
-        <v>0.2522235343804876</v>
+        <v>0.264515211933161</v>
       </c>
       <c r="Q4">
-        <v>3.164682186184897</v>
+        <v>9.816531160963779</v>
       </c>
       <c r="R4">
-        <v>3.164682186184897</v>
+        <v>88.34878044867401</v>
       </c>
       <c r="S4">
-        <v>0.0006694768887049694</v>
+        <v>0.001910946554103559</v>
       </c>
       <c r="T4">
-        <v>0.0006694768887049694</v>
+        <v>0.00191094655410356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.834515518914818</v>
+        <v>2.294649666666667</v>
       </c>
       <c r="H5">
-        <v>0.834515518914818</v>
+        <v>6.883949</v>
       </c>
       <c r="I5">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="J5">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.58091690988966</v>
+        <v>4.706583333333334</v>
       </c>
       <c r="N5">
-        <v>4.58091690988966</v>
+        <v>14.11975</v>
       </c>
       <c r="O5">
-        <v>0.3046788702267575</v>
+        <v>0.2910145782541854</v>
       </c>
       <c r="P5">
-        <v>0.3046788702267575</v>
+        <v>0.2910145782541854</v>
       </c>
       <c r="Q5">
-        <v>3.822846252162234</v>
+        <v>10.79995987697222</v>
       </c>
       <c r="R5">
-        <v>3.822846252162234</v>
+        <v>97.19963889275</v>
       </c>
       <c r="S5">
-        <v>0.0008087090786137783</v>
+        <v>0.002102386858753733</v>
       </c>
       <c r="T5">
-        <v>0.0008087090786137783</v>
+        <v>0.002102386858753733</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.834515518914818</v>
+        <v>2.294649666666667</v>
       </c>
       <c r="H6">
-        <v>0.834515518914818</v>
+        <v>6.883949</v>
       </c>
       <c r="I6">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="J6">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.486738083095326</v>
+        <v>0.5068553333333333</v>
       </c>
       <c r="N6">
-        <v>0.486738083095326</v>
+        <v>1.520566</v>
       </c>
       <c r="O6">
-        <v>0.03237317160974081</v>
+        <v>0.03133956856160015</v>
       </c>
       <c r="P6">
-        <v>0.03237317160974081</v>
+        <v>0.03133956856160015</v>
       </c>
       <c r="Q6">
-        <v>0.4061904839898998</v>
+        <v>1.163055421681556</v>
       </c>
       <c r="R6">
-        <v>0.4061904839898998</v>
+        <v>10.467498795134</v>
       </c>
       <c r="S6">
-        <v>8.59281044492333E-05</v>
+        <v>0.0002264075480279558</v>
       </c>
       <c r="T6">
-        <v>8.59281044492333E-05</v>
+        <v>0.0002264075480279558</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.834515518914818</v>
+        <v>2.294649666666667</v>
       </c>
       <c r="H7">
-        <v>0.834515518914818</v>
+        <v>6.883949</v>
       </c>
       <c r="I7">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="J7">
-        <v>0.002654299846956554</v>
+        <v>0.007224335190924395</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.29562357883816</v>
+        <v>5.586393</v>
       </c>
       <c r="N7">
-        <v>5.29562357883816</v>
+        <v>16.759179</v>
       </c>
       <c r="O7">
-        <v>0.3522143363184145</v>
+        <v>0.3454144307492272</v>
       </c>
       <c r="P7">
-        <v>0.3522143363184145</v>
+        <v>0.3454144307492272</v>
       </c>
       <c r="Q7">
-        <v>4.419280058871673</v>
+        <v>12.818814835319</v>
       </c>
       <c r="R7">
-        <v>4.419280058871673</v>
+        <v>115.369333517871</v>
       </c>
       <c r="S7">
-        <v>0.0009348824589858719</v>
+        <v>0.00249538962751476</v>
       </c>
       <c r="T7">
-        <v>0.0009348824589858719</v>
+        <v>0.00249538962751476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>287.305616547454</v>
+        <v>287.769348</v>
       </c>
       <c r="H8">
-        <v>287.305616547454</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I8">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="J8">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.582584958198364</v>
+        <v>0.7865853333333334</v>
       </c>
       <c r="N8">
-        <v>0.582584958198364</v>
+        <v>2.359756</v>
       </c>
       <c r="O8">
-        <v>0.03874799092988913</v>
+        <v>0.04863566260895438</v>
       </c>
       <c r="P8">
-        <v>0.03874799092988913</v>
+        <v>0.04863566260895438</v>
       </c>
       <c r="Q8">
-        <v>167.3799306064537</v>
+        <v>226.355148519696</v>
       </c>
       <c r="R8">
-        <v>167.3799306064537</v>
+        <v>2037.196336677264</v>
       </c>
       <c r="S8">
-        <v>0.03540860932678671</v>
+        <v>0.04406369052108677</v>
       </c>
       <c r="T8">
-        <v>0.03540860932678671</v>
+        <v>0.04406369052108677</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>287.305616547454</v>
+        <v>287.769348</v>
       </c>
       <c r="H9">
-        <v>287.305616547454</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I9">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="J9">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.297127667971696</v>
+        <v>0.30859</v>
       </c>
       <c r="N9">
-        <v>0.297127667971696</v>
+        <v>0.92577</v>
       </c>
       <c r="O9">
-        <v>0.01976209653471056</v>
+        <v>0.01908054789287184</v>
       </c>
       <c r="P9">
-        <v>0.01976209653471056</v>
+        <v>0.01908054789287185</v>
       </c>
       <c r="Q9">
-        <v>85.36644783991532</v>
+        <v>88.80274309932</v>
       </c>
       <c r="R9">
-        <v>85.36644783991532</v>
+        <v>799.2246878938801</v>
       </c>
       <c r="S9">
-        <v>0.0180589583842409</v>
+        <v>0.01728689015885816</v>
       </c>
       <c r="T9">
-        <v>0.0180589583842409</v>
+        <v>0.01728689015885816</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>287.305616547454</v>
+        <v>287.769348</v>
       </c>
       <c r="H10">
-        <v>287.305616547454</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I10">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="J10">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.79223886728933</v>
+        <v>4.278008666666667</v>
       </c>
       <c r="N10">
-        <v>3.79223886728933</v>
+        <v>12.834026</v>
       </c>
       <c r="O10">
-        <v>0.2522235343804876</v>
+        <v>0.264515211933161</v>
       </c>
       <c r="P10">
-        <v>0.2522235343804876</v>
+        <v>0.264515211933161</v>
       </c>
       <c r="Q10">
-        <v>1089.53152586178</v>
+        <v>1231.079764745016</v>
       </c>
       <c r="R10">
-        <v>1089.53152586178</v>
+        <v>11079.71788270514</v>
       </c>
       <c r="S10">
-        <v>0.2304863911024353</v>
+        <v>0.2396495865689423</v>
       </c>
       <c r="T10">
-        <v>0.2304863911024353</v>
+        <v>0.2396495865689424</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>287.305616547454</v>
+        <v>287.769348</v>
       </c>
       <c r="H11">
-        <v>287.305616547454</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I11">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="J11">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.58091690988966</v>
+        <v>4.706583333333334</v>
       </c>
       <c r="N11">
-        <v>4.58091690988966</v>
+        <v>14.11975</v>
       </c>
       <c r="O11">
-        <v>0.3046788702267575</v>
+        <v>0.2910145782541854</v>
       </c>
       <c r="P11">
-        <v>0.3046788702267575</v>
+        <v>0.2910145782541854</v>
       </c>
       <c r="Q11">
-        <v>1316.123157148507</v>
+        <v>1354.410417141</v>
       </c>
       <c r="R11">
-        <v>1316.123157148507</v>
+        <v>12189.693754269</v>
       </c>
       <c r="S11">
-        <v>0.2784210181504982</v>
+        <v>0.2636578926953104</v>
       </c>
       <c r="T11">
-        <v>0.2784210181504982</v>
+        <v>0.2636578926953104</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>287.305616547454</v>
+        <v>287.769348</v>
       </c>
       <c r="H12">
-        <v>287.305616547454</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I12">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="J12">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.486738083095326</v>
+        <v>0.5068553333333333</v>
       </c>
       <c r="N12">
-        <v>0.486738083095326</v>
+        <v>1.520566</v>
       </c>
       <c r="O12">
-        <v>0.03237317160974081</v>
+        <v>0.03133956856160015</v>
       </c>
       <c r="P12">
-        <v>0.03237317160974081</v>
+        <v>0.03133956856160015</v>
       </c>
       <c r="Q12">
-        <v>139.8425850608286</v>
+        <v>145.857428803656</v>
       </c>
       <c r="R12">
-        <v>139.8425850608286</v>
+        <v>1312.716859232904</v>
       </c>
       <c r="S12">
-        <v>0.02958318505525714</v>
+        <v>0.02839350748165777</v>
       </c>
       <c r="T12">
-        <v>0.02958318505525714</v>
+        <v>0.02839350748165777</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>287.305616547454</v>
+        <v>287.769348</v>
       </c>
       <c r="H13">
-        <v>287.305616547454</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I13">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="J13">
-        <v>0.9138179419638887</v>
+        <v>0.9059954806285326</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.29562357883816</v>
+        <v>5.586393</v>
       </c>
       <c r="N13">
-        <v>5.29562357883816</v>
+        <v>16.759179</v>
       </c>
       <c r="O13">
-        <v>0.3522143363184145</v>
+        <v>0.3454144307492272</v>
       </c>
       <c r="P13">
-        <v>0.3522143363184145</v>
+        <v>0.3454144307492272</v>
       </c>
       <c r="Q13">
-        <v>1521.462397321332</v>
+        <v>1607.592671281764</v>
       </c>
       <c r="R13">
-        <v>1521.462397321332</v>
+        <v>14468.33404153588</v>
       </c>
       <c r="S13">
-        <v>0.3218597799446705</v>
+        <v>0.3129439132026771</v>
       </c>
       <c r="T13">
-        <v>0.3218597799446705</v>
+        <v>0.3129439132026771</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.18218449618</v>
+        <v>1.780470666666667</v>
       </c>
       <c r="H14">
-        <v>1.18218449618</v>
+        <v>5.341412</v>
       </c>
       <c r="I14">
-        <v>0.003760112371984875</v>
+        <v>0.005605525357730839</v>
       </c>
       <c r="J14">
-        <v>0.003760112371984875</v>
+        <v>0.00560552535773084</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.582584958198364</v>
+        <v>0.7865853333333334</v>
       </c>
       <c r="N14">
-        <v>0.582584958198364</v>
+        <v>2.359756</v>
       </c>
       <c r="O14">
-        <v>0.03874799092988913</v>
+        <v>0.04863566260895438</v>
       </c>
       <c r="P14">
-        <v>0.03874799092988913</v>
+        <v>0.04863566260895438</v>
       </c>
       <c r="Q14">
-        <v>0.6887229052897793</v>
+        <v>1.400492112830222</v>
       </c>
       <c r="R14">
-        <v>0.6887229052897793</v>
+        <v>12.604429015472</v>
       </c>
       <c r="S14">
-        <v>0.0001456968000850339</v>
+        <v>0.0002726284400445354</v>
       </c>
       <c r="T14">
-        <v>0.0001456968000850339</v>
+        <v>0.0002726284400445354</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.18218449618</v>
+        <v>1.780470666666667</v>
       </c>
       <c r="H15">
-        <v>1.18218449618</v>
+        <v>5.341412</v>
       </c>
       <c r="I15">
-        <v>0.003760112371984875</v>
+        <v>0.005605525357730839</v>
       </c>
       <c r="J15">
-        <v>0.003760112371984875</v>
+        <v>0.00560552535773084</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.297127667971696</v>
+        <v>0.30859</v>
       </c>
       <c r="N15">
-        <v>0.297127667971696</v>
+        <v>0.92577</v>
       </c>
       <c r="O15">
-        <v>0.01976209653471056</v>
+        <v>0.01908054789287184</v>
       </c>
       <c r="P15">
-        <v>0.01976209653471056</v>
+        <v>0.01908054789287185</v>
       </c>
       <c r="Q15">
-        <v>0.3512597224622578</v>
+        <v>0.5494354430266667</v>
       </c>
       <c r="R15">
-        <v>0.3512597224622578</v>
+        <v>4.94491898724</v>
       </c>
       <c r="S15">
-        <v>7.430770367652461E-05</v>
+        <v>0.0001069564950528908</v>
       </c>
       <c r="T15">
-        <v>7.430770367652461E-05</v>
+        <v>0.0001069564950528909</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.18218449618</v>
+        <v>1.780470666666667</v>
       </c>
       <c r="H16">
-        <v>1.18218449618</v>
+        <v>5.341412</v>
       </c>
       <c r="I16">
-        <v>0.003760112371984875</v>
+        <v>0.005605525357730839</v>
       </c>
       <c r="J16">
-        <v>0.003760112371984875</v>
+        <v>0.00560552535773084</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.79223886728933</v>
+        <v>4.278008666666667</v>
       </c>
       <c r="N16">
-        <v>3.79223886728933</v>
+        <v>12.834026</v>
       </c>
       <c r="O16">
-        <v>0.2522235343804876</v>
+        <v>0.264515211933161</v>
       </c>
       <c r="P16">
-        <v>0.2522235343804876</v>
+        <v>0.264515211933161</v>
       </c>
       <c r="Q16">
-        <v>4.483125994720651</v>
+        <v>7.616868942745778</v>
       </c>
       <c r="R16">
-        <v>4.483125994720651</v>
+        <v>68.551820484712</v>
       </c>
       <c r="S16">
-        <v>0.000948388832129824</v>
+        <v>0.001482746727996881</v>
       </c>
       <c r="T16">
-        <v>0.000948388832129824</v>
+        <v>0.001482746727996881</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.18218449618</v>
+        <v>1.780470666666667</v>
       </c>
       <c r="H17">
-        <v>1.18218449618</v>
+        <v>5.341412</v>
       </c>
       <c r="I17">
-        <v>0.003760112371984875</v>
+        <v>0.005605525357730839</v>
       </c>
       <c r="J17">
-        <v>0.003760112371984875</v>
+        <v>0.00560552535773084</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.58091690988966</v>
+        <v>4.706583333333334</v>
       </c>
       <c r="N17">
-        <v>4.58091690988966</v>
+        <v>14.11975</v>
       </c>
       <c r="O17">
-        <v>0.3046788702267575</v>
+        <v>0.2910145782541854</v>
       </c>
       <c r="P17">
-        <v>0.3046788702267575</v>
+        <v>0.2910145782541854</v>
       </c>
       <c r="Q17">
-        <v>5.41548894916035</v>
+        <v>8.379933565222222</v>
       </c>
       <c r="R17">
-        <v>5.41548894916035</v>
+        <v>75.41940208699999</v>
       </c>
       <c r="S17">
-        <v>0.001145626789422005</v>
+        <v>0.001631289597873182</v>
       </c>
       <c r="T17">
-        <v>0.001145626789422005</v>
+        <v>0.001631289597873182</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.18218449618</v>
+        <v>1.780470666666667</v>
       </c>
       <c r="H18">
-        <v>1.18218449618</v>
+        <v>5.341412</v>
       </c>
       <c r="I18">
-        <v>0.003760112371984875</v>
+        <v>0.005605525357730839</v>
       </c>
       <c r="J18">
-        <v>0.003760112371984875</v>
+        <v>0.00560552535773084</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.486738083095326</v>
+        <v>0.5068553333333333</v>
       </c>
       <c r="N18">
-        <v>0.486738083095326</v>
+        <v>1.520566</v>
       </c>
       <c r="O18">
-        <v>0.03237317160974081</v>
+        <v>0.03133956856160015</v>
       </c>
       <c r="P18">
-        <v>0.03237317160974081</v>
+        <v>0.03133956856160015</v>
       </c>
       <c r="Q18">
-        <v>0.575414215535667</v>
+        <v>0.9024410532435556</v>
       </c>
       <c r="R18">
-        <v>0.575414215535667</v>
+        <v>8.121969479192</v>
       </c>
       <c r="S18">
-        <v>0.0001217267630901759</v>
+        <v>0.0001756747462723938</v>
       </c>
       <c r="T18">
-        <v>0.0001217267630901759</v>
+        <v>0.0001756747462723939</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.18218449618</v>
+        <v>1.780470666666667</v>
       </c>
       <c r="H19">
-        <v>1.18218449618</v>
+        <v>5.341412</v>
       </c>
       <c r="I19">
-        <v>0.003760112371984875</v>
+        <v>0.005605525357730839</v>
       </c>
       <c r="J19">
-        <v>0.003760112371984875</v>
+        <v>0.00560552535773084</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.29562357883816</v>
+        <v>5.586393</v>
       </c>
       <c r="N19">
-        <v>5.29562357883816</v>
+        <v>16.759179</v>
       </c>
       <c r="O19">
-        <v>0.3522143363184145</v>
+        <v>0.3454144307492272</v>
       </c>
       <c r="P19">
-        <v>0.3522143363184145</v>
+        <v>0.3454144307492272</v>
       </c>
       <c r="Q19">
-        <v>6.260404092507719</v>
+        <v>9.946408868972</v>
       </c>
       <c r="R19">
-        <v>6.260404092507719</v>
+        <v>89.517679820748</v>
       </c>
       <c r="S19">
-        <v>0.001324365483581312</v>
+        <v>0.001936229350490956</v>
       </c>
       <c r="T19">
-        <v>0.001324365483581312</v>
+        <v>0.001936229350490956</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.9563525368706</v>
+        <v>2.098855666666667</v>
       </c>
       <c r="H20">
-        <v>1.9563525368706</v>
+        <v>6.296567</v>
       </c>
       <c r="I20">
-        <v>0.00622246815249309</v>
+        <v>0.006607909291616374</v>
       </c>
       <c r="J20">
-        <v>0.00622246815249309</v>
+        <v>0.006607909291616373</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.582584958198364</v>
+        <v>0.7865853333333334</v>
       </c>
       <c r="N20">
-        <v>0.582584958198364</v>
+        <v>2.359756</v>
       </c>
       <c r="O20">
-        <v>0.03874799092988913</v>
+        <v>0.04863566260895438</v>
       </c>
       <c r="P20">
-        <v>0.03874799092988913</v>
+        <v>0.04863566260895438</v>
       </c>
       <c r="Q20">
-        <v>1.139741560914022</v>
+        <v>1.650929084183556</v>
       </c>
       <c r="R20">
-        <v>1.139741560914022</v>
+        <v>14.858361757652</v>
       </c>
       <c r="S20">
-        <v>0.0002411081395343263</v>
+        <v>0.0003213800468576287</v>
       </c>
       <c r="T20">
-        <v>0.0002411081395343263</v>
+        <v>0.0003213800468576286</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.9563525368706</v>
+        <v>2.098855666666667</v>
       </c>
       <c r="H21">
-        <v>1.9563525368706</v>
+        <v>6.296567</v>
       </c>
       <c r="I21">
-        <v>0.00622246815249309</v>
+        <v>0.006607909291616374</v>
       </c>
       <c r="J21">
-        <v>0.00622246815249309</v>
+        <v>0.006607909291616373</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.297127667971696</v>
+        <v>0.30859</v>
       </c>
       <c r="N21">
-        <v>0.297127667971696</v>
+        <v>0.92577</v>
       </c>
       <c r="O21">
-        <v>0.01976209653471056</v>
+        <v>0.01908054789287184</v>
       </c>
       <c r="P21">
-        <v>0.01976209653471056</v>
+        <v>0.01908054789287185</v>
       </c>
       <c r="Q21">
-        <v>0.5812864670108728</v>
+        <v>0.6476858701766666</v>
       </c>
       <c r="R21">
-        <v>0.5812864670108728</v>
+        <v>5.829172831589999</v>
       </c>
       <c r="S21">
-        <v>0.0001229690163137305</v>
+        <v>0.0001260825297104391</v>
       </c>
       <c r="T21">
-        <v>0.0001229690163137305</v>
+        <v>0.0001260825297104391</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.9563525368706</v>
+        <v>2.098855666666667</v>
       </c>
       <c r="H22">
-        <v>1.9563525368706</v>
+        <v>6.296567</v>
       </c>
       <c r="I22">
-        <v>0.00622246815249309</v>
+        <v>0.006607909291616374</v>
       </c>
       <c r="J22">
-        <v>0.00622246815249309</v>
+        <v>0.006607909291616373</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.79223886728933</v>
+        <v>4.278008666666667</v>
       </c>
       <c r="N22">
-        <v>3.79223886728933</v>
+        <v>12.834026</v>
       </c>
       <c r="O22">
-        <v>0.2522235343804876</v>
+        <v>0.264515211933161</v>
       </c>
       <c r="P22">
-        <v>0.2522235343804876</v>
+        <v>0.264515211933161</v>
       </c>
       <c r="Q22">
-        <v>7.418956128440771</v>
+        <v>8.978922732082443</v>
       </c>
       <c r="R22">
-        <v>7.418956128440771</v>
+        <v>80.810304588742</v>
       </c>
       <c r="S22">
-        <v>0.00156945290999183</v>
+        <v>0.001747892526707009</v>
       </c>
       <c r="T22">
-        <v>0.00156945290999183</v>
+        <v>0.001747892526707009</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.9563525368706</v>
+        <v>2.098855666666667</v>
       </c>
       <c r="H23">
-        <v>1.9563525368706</v>
+        <v>6.296567</v>
       </c>
       <c r="I23">
-        <v>0.00622246815249309</v>
+        <v>0.006607909291616374</v>
       </c>
       <c r="J23">
-        <v>0.00622246815249309</v>
+        <v>0.006607909291616373</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.58091690988966</v>
+        <v>4.706583333333334</v>
       </c>
       <c r="N23">
-        <v>4.58091690988966</v>
+        <v>14.11975</v>
       </c>
       <c r="O23">
-        <v>0.3046788702267575</v>
+        <v>0.2910145782541854</v>
       </c>
       <c r="P23">
-        <v>0.3046788702267575</v>
+        <v>0.2910145782541854</v>
       </c>
       <c r="Q23">
-        <v>8.961888417856066</v>
+        <v>9.878439099805556</v>
       </c>
       <c r="R23">
-        <v>8.961888417856066</v>
+        <v>88.90595189825</v>
       </c>
       <c r="S23">
-        <v>0.001895854566723574</v>
+        <v>0.001922997935641652</v>
       </c>
       <c r="T23">
-        <v>0.001895854566723574</v>
+        <v>0.001922997935641652</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.9563525368706</v>
+        <v>2.098855666666667</v>
       </c>
       <c r="H24">
-        <v>1.9563525368706</v>
+        <v>6.296567</v>
       </c>
       <c r="I24">
-        <v>0.00622246815249309</v>
+        <v>0.006607909291616374</v>
       </c>
       <c r="J24">
-        <v>0.00622246815249309</v>
+        <v>0.006607909291616373</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.486738083095326</v>
+        <v>0.5068553333333333</v>
       </c>
       <c r="N24">
-        <v>0.486738083095326</v>
+        <v>1.520566</v>
       </c>
       <c r="O24">
-        <v>0.03237317160974081</v>
+        <v>0.03133956856160015</v>
       </c>
       <c r="P24">
-        <v>0.03237317160974081</v>
+        <v>0.03133956856160015</v>
       </c>
       <c r="Q24">
-        <v>0.952231283655074</v>
+        <v>1.063816188546889</v>
       </c>
       <c r="R24">
-        <v>0.952231283655074</v>
+        <v>9.574345696922</v>
       </c>
       <c r="S24">
-        <v>0.0002014410293368057</v>
+        <v>0.000207089026293446</v>
       </c>
       <c r="T24">
-        <v>0.0002014410293368057</v>
+        <v>0.000207089026293446</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.9563525368706</v>
+        <v>2.098855666666667</v>
       </c>
       <c r="H25">
-        <v>1.9563525368706</v>
+        <v>6.296567</v>
       </c>
       <c r="I25">
-        <v>0.00622246815249309</v>
+        <v>0.006607909291616374</v>
       </c>
       <c r="J25">
-        <v>0.00622246815249309</v>
+        <v>0.006607909291616373</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.29562357883816</v>
+        <v>5.586393</v>
       </c>
       <c r="N25">
-        <v>5.29562357883816</v>
+        <v>16.759179</v>
       </c>
       <c r="O25">
-        <v>0.3522143363184145</v>
+        <v>0.3454144307492272</v>
       </c>
       <c r="P25">
-        <v>0.3522143363184145</v>
+        <v>0.3454144307492272</v>
       </c>
       <c r="Q25">
-        <v>10.3601066227718</v>
+        <v>11.725032604277</v>
       </c>
       <c r="R25">
-        <v>10.3601066227718</v>
+        <v>105.525293438493</v>
       </c>
       <c r="S25">
-        <v>0.002191642490592825</v>
+        <v>0.002282467226406199</v>
       </c>
       <c r="T25">
-        <v>0.002191642490592825</v>
+        <v>0.002282467226406198</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>23.1227049095048</v>
+        <v>0.212347</v>
       </c>
       <c r="H26">
-        <v>23.1227049095048</v>
+        <v>0.637041</v>
       </c>
       <c r="I26">
-        <v>0.07354517766467669</v>
+        <v>0.0006685403558860861</v>
       </c>
       <c r="J26">
-        <v>0.07354517766467669</v>
+        <v>0.0006685403558860862</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.582584958198364</v>
+        <v>0.7865853333333334</v>
       </c>
       <c r="N26">
-        <v>0.582584958198364</v>
+        <v>2.359756</v>
       </c>
       <c r="O26">
-        <v>0.03874799092988913</v>
+        <v>0.04863566260895438</v>
       </c>
       <c r="P26">
-        <v>0.03874799092988913</v>
+        <v>0.04863566260895438</v>
       </c>
       <c r="Q26">
-        <v>13.47094007313696</v>
+        <v>0.1670290357773333</v>
       </c>
       <c r="R26">
-        <v>13.47094007313696</v>
+        <v>1.503261321996</v>
       </c>
       <c r="S26">
-        <v>0.002849727877087978</v>
+        <v>3.251490318934597E-05</v>
       </c>
       <c r="T26">
-        <v>0.002849727877087978</v>
+        <v>3.251490318934598E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>23.1227049095048</v>
+        <v>0.212347</v>
       </c>
       <c r="H27">
-        <v>23.1227049095048</v>
+        <v>0.637041</v>
       </c>
       <c r="I27">
-        <v>0.07354517766467669</v>
+        <v>0.0006685403558860861</v>
       </c>
       <c r="J27">
-        <v>0.07354517766467669</v>
+        <v>0.0006685403558860862</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.297127667971696</v>
+        <v>0.30859</v>
       </c>
       <c r="N27">
-        <v>0.297127667971696</v>
+        <v>0.92577</v>
       </c>
       <c r="O27">
-        <v>0.01976209653471056</v>
+        <v>0.01908054789287184</v>
       </c>
       <c r="P27">
-        <v>0.01976209653471056</v>
+        <v>0.01908054789287185</v>
       </c>
       <c r="Q27">
-        <v>6.870395386958847</v>
+        <v>0.06552816072999999</v>
       </c>
       <c r="R27">
-        <v>6.870395386958847</v>
+        <v>0.58975344657</v>
       </c>
       <c r="S27">
-        <v>0.00145340690067178</v>
+        <v>1.275611627880205E-05</v>
       </c>
       <c r="T27">
-        <v>0.00145340690067178</v>
+        <v>1.275611627880206E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>23.1227049095048</v>
+        <v>0.212347</v>
       </c>
       <c r="H28">
-        <v>23.1227049095048</v>
+        <v>0.637041</v>
       </c>
       <c r="I28">
-        <v>0.07354517766467669</v>
+        <v>0.0006685403558860861</v>
       </c>
       <c r="J28">
-        <v>0.07354517766467669</v>
+        <v>0.0006685403558860862</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.79223886728933</v>
+        <v>4.278008666666667</v>
       </c>
       <c r="N28">
-        <v>3.79223886728933</v>
+        <v>12.834026</v>
       </c>
       <c r="O28">
-        <v>0.2522235343804876</v>
+        <v>0.264515211933161</v>
       </c>
       <c r="P28">
-        <v>0.2522235343804876</v>
+        <v>0.264515211933161</v>
       </c>
       <c r="Q28">
-        <v>87.68682027468591</v>
+        <v>0.9084223063406666</v>
       </c>
       <c r="R28">
-        <v>87.68682027468591</v>
+        <v>8.175800757066</v>
       </c>
       <c r="S28">
-        <v>0.01854982464722565</v>
+        <v>0.0001768390939230789</v>
       </c>
       <c r="T28">
-        <v>0.01854982464722565</v>
+        <v>0.000176839093923079</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>23.1227049095048</v>
+        <v>0.212347</v>
       </c>
       <c r="H29">
-        <v>23.1227049095048</v>
+        <v>0.637041</v>
       </c>
       <c r="I29">
-        <v>0.07354517766467669</v>
+        <v>0.0006685403558860861</v>
       </c>
       <c r="J29">
-        <v>0.07354517766467669</v>
+        <v>0.0006685403558860862</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.58091690988966</v>
+        <v>4.706583333333334</v>
       </c>
       <c r="N29">
-        <v>4.58091690988966</v>
+        <v>14.11975</v>
       </c>
       <c r="O29">
-        <v>0.3046788702267575</v>
+        <v>0.2910145782541854</v>
       </c>
       <c r="P29">
-        <v>0.3046788702267575</v>
+        <v>0.2910145782541854</v>
       </c>
       <c r="Q29">
-        <v>105.9231899223392</v>
+        <v>0.9994288510833332</v>
       </c>
       <c r="R29">
-        <v>105.9231899223392</v>
+        <v>8.994859659749999</v>
       </c>
       <c r="S29">
-        <v>0.02240766164149985</v>
+        <v>0.0001945549897140924</v>
       </c>
       <c r="T29">
-        <v>0.02240766164149985</v>
+        <v>0.0001945549897140924</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>23.1227049095048</v>
+        <v>0.212347</v>
       </c>
       <c r="H30">
-        <v>23.1227049095048</v>
+        <v>0.637041</v>
       </c>
       <c r="I30">
-        <v>0.07354517766467669</v>
+        <v>0.0006685403558860861</v>
       </c>
       <c r="J30">
-        <v>0.07354517766467669</v>
+        <v>0.0006685403558860862</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.486738083095326</v>
+        <v>0.5068553333333333</v>
       </c>
       <c r="N30">
-        <v>0.486738083095326</v>
+        <v>1.520566</v>
       </c>
       <c r="O30">
-        <v>0.03237317160974081</v>
+        <v>0.03133956856160015</v>
       </c>
       <c r="P30">
-        <v>0.03237317160974081</v>
+        <v>0.03133956856160015</v>
       </c>
       <c r="Q30">
-        <v>11.25470106363125</v>
+        <v>0.1076292094673333</v>
       </c>
       <c r="R30">
-        <v>11.25470106363125</v>
+        <v>0.968662885206</v>
       </c>
       <c r="S30">
-        <v>0.002380890657607456</v>
+        <v>2.095176631948856E-05</v>
       </c>
       <c r="T30">
-        <v>0.002380890657607456</v>
+        <v>2.095176631948856E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.212347</v>
+      </c>
+      <c r="H31">
+        <v>0.637041</v>
+      </c>
+      <c r="I31">
+        <v>0.0006685403558860861</v>
+      </c>
+      <c r="J31">
+        <v>0.0006685403558860862</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.586393</v>
+      </c>
+      <c r="N31">
+        <v>16.759179</v>
+      </c>
+      <c r="O31">
+        <v>0.3454144307492272</v>
+      </c>
+      <c r="P31">
+        <v>0.3454144307492272</v>
+      </c>
+      <c r="Q31">
+        <v>1.186253794371</v>
+      </c>
+      <c r="R31">
+        <v>10.676284149339</v>
+      </c>
+      <c r="S31">
+        <v>0.0002309234864612782</v>
+      </c>
+      <c r="T31">
+        <v>0.0002309234864612782</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>23.47212533333333</v>
+      </c>
+      <c r="H32">
+        <v>70.416376</v>
+      </c>
+      <c r="I32">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="J32">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.7865853333333334</v>
+      </c>
+      <c r="N32">
+        <v>2.359756</v>
+      </c>
+      <c r="O32">
+        <v>0.04863566260895438</v>
+      </c>
+      <c r="P32">
+        <v>0.04863566260895438</v>
+      </c>
+      <c r="Q32">
+        <v>18.46282952936178</v>
+      </c>
+      <c r="R32">
+        <v>166.165465764256</v>
+      </c>
+      <c r="S32">
+        <v>0.003594088368856299</v>
+      </c>
+      <c r="T32">
+        <v>0.003594088368856299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>23.47212533333333</v>
+      </c>
+      <c r="H33">
+        <v>70.416376</v>
+      </c>
+      <c r="I33">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="J33">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.30859</v>
+      </c>
+      <c r="N33">
+        <v>0.92577</v>
+      </c>
+      <c r="O33">
+        <v>0.01908054789287184</v>
+      </c>
+      <c r="P33">
+        <v>0.01908054789287185</v>
+      </c>
+      <c r="Q33">
+        <v>7.243263156613333</v>
+      </c>
+      <c r="R33">
+        <v>65.18936840952</v>
+      </c>
+      <c r="S33">
+        <v>0.001410018319366958</v>
+      </c>
+      <c r="T33">
+        <v>0.001410018319366958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>23.47212533333333</v>
+      </c>
+      <c r="H34">
+        <v>70.416376</v>
+      </c>
+      <c r="I34">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="J34">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>4.278008666666667</v>
+      </c>
+      <c r="N34">
+        <v>12.834026</v>
+      </c>
+      <c r="O34">
+        <v>0.264515211933161</v>
+      </c>
+      <c r="P34">
+        <v>0.264515211933161</v>
+      </c>
+      <c r="Q34">
+        <v>100.4139556010862</v>
+      </c>
+      <c r="R34">
+        <v>903.725600409776</v>
+      </c>
+      <c r="S34">
+        <v>0.0195472004614881</v>
+      </c>
+      <c r="T34">
+        <v>0.01954720046148811</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>23.47212533333333</v>
+      </c>
+      <c r="H35">
+        <v>70.416376</v>
+      </c>
+      <c r="I35">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="J35">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4.706583333333334</v>
+      </c>
+      <c r="N35">
+        <v>14.11975</v>
+      </c>
+      <c r="O35">
+        <v>0.2910145782541854</v>
+      </c>
+      <c r="P35">
+        <v>0.2910145782541854</v>
+      </c>
+      <c r="Q35">
+        <v>110.4735138917778</v>
+      </c>
+      <c r="R35">
+        <v>994.2616250259999</v>
+      </c>
+      <c r="S35">
+        <v>0.02150545617689233</v>
+      </c>
+      <c r="T35">
+        <v>0.02150545617689233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>23.1227049095048</v>
-      </c>
-      <c r="H31">
-        <v>23.1227049095048</v>
-      </c>
-      <c r="I31">
-        <v>0.07354517766467669</v>
-      </c>
-      <c r="J31">
-        <v>0.07354517766467669</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>5.29562357883816</v>
-      </c>
-      <c r="N31">
-        <v>5.29562357883816</v>
-      </c>
-      <c r="O31">
-        <v>0.3522143363184145</v>
-      </c>
-      <c r="P31">
-        <v>0.3522143363184145</v>
-      </c>
-      <c r="Q31">
-        <v>122.4491413252905</v>
-      </c>
-      <c r="R31">
-        <v>122.4491413252905</v>
-      </c>
-      <c r="S31">
-        <v>0.02590366594058399</v>
-      </c>
-      <c r="T31">
-        <v>0.02590366594058399</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>23.47212533333333</v>
+      </c>
+      <c r="H36">
+        <v>70.416376</v>
+      </c>
+      <c r="I36">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="J36">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.5068553333333333</v>
+      </c>
+      <c r="N36">
+        <v>1.520566</v>
+      </c>
+      <c r="O36">
+        <v>0.03133956856160015</v>
+      </c>
+      <c r="P36">
+        <v>0.03133956856160015</v>
+      </c>
+      <c r="Q36">
+        <v>11.89697190986844</v>
+      </c>
+      <c r="R36">
+        <v>107.072747188816</v>
+      </c>
+      <c r="S36">
+        <v>0.002315937993029087</v>
+      </c>
+      <c r="T36">
+        <v>0.002315937993029087</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>23.47212533333333</v>
+      </c>
+      <c r="H37">
+        <v>70.416376</v>
+      </c>
+      <c r="I37">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="J37">
+        <v>0.07389820917530969</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>5.586393</v>
+      </c>
+      <c r="N37">
+        <v>16.759179</v>
+      </c>
+      <c r="O37">
+        <v>0.3454144307492272</v>
+      </c>
+      <c r="P37">
+        <v>0.3454144307492272</v>
+      </c>
+      <c r="Q37">
+        <v>131.124516657256</v>
+      </c>
+      <c r="R37">
+        <v>1180.120649915304</v>
+      </c>
+      <c r="S37">
+        <v>0.02552550785567691</v>
+      </c>
+      <c r="T37">
+        <v>0.02552550785567691</v>
       </c>
     </row>
   </sheetData>
